--- a/REVER_DailyTracker_20200605.xlsx
+++ b/REVER_DailyTracker_20200605.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60740519-186E-46CC-89D0-A1A1DE4312B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812519F0-DE1D-4ABF-BFAA-BA113D531C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -188,6 +188,12 @@
     <t>POC Tasks are completed and tested till SSC6 and are going smooth for download and uploaded for rpa customization tasks,
 POC Taks are placed at scheduler
 Also developed code to convert purchase summary xls to csv file and uploaded successful.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Media file approval</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +222,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,10 +317,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,9 +360,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{B3B8906E-128C-48AE-B415-FB7771C02F40}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,22 +682,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G70" sqref="G68:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -689,7 +718,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -699,8 +728,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -712,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -723,10 +752,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -740,9 +769,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -756,9 +785,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -772,8 +801,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -790,19 +819,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -820,13 +849,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -840,7 +869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -854,7 +883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -862,7 +891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -870,12 +899,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -883,7 +912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -894,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -905,7 +934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -916,12 +945,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -932,7 +961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -943,12 +972,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -956,7 +985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -964,7 +993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -987,18 +1016,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1030,7 +1059,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1039,46 +1068,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1095,22 +1124,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1133,16 +1162,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43987</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1151,46 +1192,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1211,18 +1252,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1254,7 +1295,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1263,46 +1304,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1323,18 +1364,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1366,7 +1407,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1375,46 +1416,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1435,18 +1476,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1490,7 +1531,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1499,46 +1540,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1559,18 +1600,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1602,7 +1643,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1611,46 +1652,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1671,18 +1712,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1714,7 +1755,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1723,46 +1764,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1783,18 +1824,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1817,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1826,7 +1867,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1835,46 +1876,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1895,18 +1936,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1938,7 +1979,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1947,46 +1988,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200605.xlsx
+++ b/REVER_DailyTracker_20200605.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812519F0-DE1D-4ABF-BFAA-BA113D531C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D7820-C816-47E6-9871-96256B752741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Media file approval</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Worked on errors and corrections in App</t>
   </si>
 </sst>
 </file>
@@ -686,15 +692,15 @@
       <selection activeCell="G70" sqref="G68:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -729,7 +735,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -755,7 +761,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -787,7 +793,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -869,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -883,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -891,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -912,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -923,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -950,7 +956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -977,7 +983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -985,7 +991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -993,7 +999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1016,15 +1022,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1124,19 +1130,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1162,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1252,15 +1258,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1360,19 +1366,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1401,9 +1407,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1476,15 +1488,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1600,15 +1612,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1712,15 +1724,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1824,15 +1836,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1936,15 +1948,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
